--- a/covid counties/data.xlsx
+++ b/covid counties/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FreeLance\CovidCounties\covid counties\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FreeLance\covid19countiesprediction\covid counties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B3E1D2-6B4F-497A-A92C-FD9E2AC6043E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55532F4C-1CB1-4620-B78A-C177799BE6B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Westchester</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Yates</t>
+  </si>
+  <si>
+    <t>New York City</t>
   </si>
 </sst>
 </file>
@@ -533,46 +536,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29:H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="2">
+        <v>43912</v>
+      </c>
+      <c r="C1" s="2">
         <v>43913</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>43914</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>43915</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
+        <v>88</v>
+      </c>
+      <c r="C2">
         <v>127</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>146</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -585,27 +595,33 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>7</v>
       </c>
       <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -618,13 +634,16 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -632,8 +651,11 @@
       <c r="D7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -644,10 +666,13 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -658,15 +683,18 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -674,41 +702,50 @@
       <c r="D10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>34</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -716,64 +753,79 @@
       <c r="D13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15">
+        <v>49</v>
+      </c>
+      <c r="C15">
         <v>100</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>124</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
       <c r="B16">
+        <v>38</v>
+      </c>
+      <c r="C16">
         <v>87</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>107</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -784,10 +836,13 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -800,8 +855,11 @@
       <c r="D19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -812,15 +870,18 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -828,8 +889,11 @@
       <c r="D21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -842,27 +906,33 @@
       <c r="D22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>4</v>
       </c>
       <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -870,13 +940,16 @@
       <c r="D24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -889,13 +962,16 @@
       <c r="D26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>39</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -903,36 +979,45 @@
       <c r="D27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>4</v>
       </c>
       <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>7</v>
       </c>
       <c r="B29">
+        <v>42</v>
+      </c>
+      <c r="C29">
         <v>76</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>96</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -943,102 +1028,125 @@
         <v>3</v>
       </c>
       <c r="D30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
+        <v>1234</v>
+      </c>
+      <c r="C31" s="1">
         <v>2442</v>
       </c>
-      <c r="C31" s="1">
+      <c r="D31" s="1">
         <v>2869</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>3285</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>41</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C33">
         <v>10</v>
       </c>
       <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>42</v>
       </c>
       <c r="B34">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C34">
         <v>7</v>
       </c>
       <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>15</v>
       </c>
       <c r="B35">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C35">
         <v>52</v>
       </c>
       <c r="D35">
+        <v>52</v>
+      </c>
+      <c r="E35">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>23</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C36">
         <v>6</v>
       </c>
       <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
       <c r="B37">
+        <v>163</v>
+      </c>
+      <c r="C37">
         <v>389</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>498</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>638</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -1049,95 +1157,113 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="C39">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>14</v>
       </c>
       <c r="B41">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C41">
         <v>45</v>
       </c>
       <c r="D41">
+        <v>45</v>
+      </c>
+      <c r="E41">
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>24</v>
       </c>
       <c r="B43">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C43">
         <v>29</v>
       </c>
       <c r="D43">
+        <v>29</v>
+      </c>
+      <c r="E43">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>4</v>
       </c>
       <c r="B45">
+        <v>262</v>
+      </c>
+      <c r="C45">
         <v>592</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>671</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>968</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1145,36 +1271,45 @@
       <c r="D46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>8</v>
       </c>
       <c r="B47">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>53</v>
       </c>
       <c r="D47">
+        <v>53</v>
+      </c>
+      <c r="E47">
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
       <c r="B48">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C48">
         <v>44</v>
       </c>
       <c r="D48">
+        <v>44</v>
+      </c>
+      <c r="E48">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -1185,10 +1320,13 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -1201,8 +1339,11 @@
       <c r="D50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -1215,50 +1356,63 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>47</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C52">
         <v>4</v>
       </c>
       <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53">
+        <v>662</v>
+      </c>
+      <c r="C53" s="1">
         <v>1458</v>
       </c>
-      <c r="C53" s="1">
+      <c r="D53" s="1">
         <v>1880</v>
       </c>
-      <c r="D53" s="1">
+      <c r="E53" s="1">
         <v>2260</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>25</v>
       </c>
       <c r="B54">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C54">
         <v>23</v>
       </c>
       <c r="D54">
+        <v>23</v>
+      </c>
+      <c r="E54">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -1271,41 +1425,50 @@
       <c r="D55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>16</v>
       </c>
       <c r="B56">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C56">
         <v>15</v>
       </c>
       <c r="D56">
+        <v>15</v>
+      </c>
+      <c r="E56">
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>9</v>
       </c>
       <c r="B57">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C57">
         <v>35</v>
       </c>
       <c r="D57">
+        <v>35</v>
+      </c>
+      <c r="E57">
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>31</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -1313,55 +1476,67 @@
       <c r="D58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>32</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>3</v>
       </c>
       <c r="D59">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>48</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C60">
         <v>6</v>
       </c>
       <c r="D60">
+        <v>6</v>
+      </c>
+      <c r="E60">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61">
+        <v>1387</v>
+      </c>
+      <c r="C61" s="1">
         <v>2894</v>
       </c>
-      <c r="C61" s="1">
+      <c r="D61" s="1">
         <v>3891</v>
       </c>
-      <c r="D61" s="1">
+      <c r="E61" s="1">
         <v>4691</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>26</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1369,8 +1544,11 @@
       <c r="D62">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1383,11 +1561,31 @@
       <c r="D63">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" s="1"/>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>6211</v>
+      </c>
+      <c r="C64">
+        <v>12305</v>
+      </c>
+      <c r="D64">
+        <v>14904</v>
+      </c>
+      <c r="E64">
+        <v>17856</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/covid counties/data.xlsx
+++ b/covid counties/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FreeLance\covid19countiesprediction\covid counties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C99BB33-1EAD-42DC-9DA1-DE46EB0B1B60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE566BBA-8C65-4ED7-9F05-DD6F712B915C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S59"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,6 +583,9 @@
       <c r="G1" s="2">
         <v>43915</v>
       </c>
+      <c r="H1" s="2">
+        <v>43916</v>
+      </c>
       <c r="L1" t="s">
         <v>61</v>
       </c>
@@ -618,6 +621,13 @@
       <c r="G2">
         <v>152</v>
       </c>
+      <c r="H2">
+        <v>171</v>
+      </c>
+      <c r="J2">
+        <f>H2-G2</f>
+        <v>19</v>
+      </c>
       <c r="L2">
         <f>G2/B2</f>
         <v>4.9966469868903765E-4</v>
@@ -665,28 +675,35 @@
       <c r="G3">
         <v>2</v>
       </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J59" si="1">H3-G3</f>
+        <v>0</v>
+      </c>
       <c r="L3">
-        <f t="shared" ref="L3:L59" si="1">G3/B3</f>
+        <f t="shared" ref="L3:L59" si="2">G3/B3</f>
         <v>4.0861357414293305E-5</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M59" si="2">G3/C3</f>
+        <f t="shared" ref="M3:M59" si="3">G3/C3</f>
         <v>1.9342359767891683E-3</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O59" si="3">(E3-D3)/D3*100</f>
+        <f t="shared" ref="O3:O59" si="4">(E3-D3)/D3*100</f>
         <v>0</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P59" si="4">(F3-E3)/E3*100</f>
+        <f t="shared" ref="P3:P59" si="5">(F3-E3)/E3*100</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q59" si="5">(G3-F3)/F3*100</f>
+        <f t="shared" ref="Q3:Q59" si="6">(G3-F3)/F3*100</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S59" si="6">ROUND(AVERAGE(O3:Q3),0)</f>
+        <f t="shared" ref="S3:S59" si="7">ROUND(AVERAGE(O3:Q3),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -712,28 +729,35 @@
       <c r="G4">
         <v>11</v>
       </c>
+      <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="L4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.4835493519441675E-5</v>
       </c>
       <c r="M4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5384615384615385E-2</v>
       </c>
       <c r="O4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="P4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57.142857142857139</v>
       </c>
       <c r="S4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>102</v>
       </c>
     </row>
@@ -759,12 +783,19 @@
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O5">
@@ -777,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -803,27 +834,34 @@
       <c r="G6">
         <v>2</v>
       </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4991877639767076E-5</v>
       </c>
       <c r="M6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.3148148148148147E-3</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -849,12 +887,19 @@
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.4126236981579634E-6</v>
       </c>
       <c r="M7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.6666666666666664E-4</v>
       </c>
       <c r="O7">
@@ -867,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -893,12 +938,19 @@
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="L8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1257458065968705E-5</v>
       </c>
       <c r="M8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4342153306881526E-3</v>
       </c>
       <c r="O8">
@@ -911,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -937,28 +989,35 @@
       <c r="G9">
         <v>3</v>
       </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9433009093250389E-5</v>
       </c>
       <c r="M9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.3375980419424818E-3</v>
       </c>
       <c r="O9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="P9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
     </row>
@@ -984,28 +1043,35 @@
       <c r="G10">
         <v>10</v>
       </c>
+      <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="L10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2176115332164427E-4</v>
       </c>
       <c r="M10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.9445438282647581E-3</v>
       </c>
       <c r="O10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="P10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.666666666666657</v>
       </c>
       <c r="S10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
     </row>
@@ -1031,28 +1097,35 @@
       <c r="G11">
         <v>12</v>
       </c>
+      <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="L11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9018638265500191E-4</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8518518518518517E-2</v>
       </c>
       <c r="O11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="P11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="S11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>140</v>
       </c>
     </row>
@@ -1078,28 +1151,35 @@
       <c r="G12">
         <v>2</v>
       </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0538349278417384E-5</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.9840637450199202E-3</v>
       </c>
       <c r="O12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="P12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
     </row>
@@ -1125,28 +1205,35 @@
       <c r="G13">
         <v>5</v>
       </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="L13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0421008753647353E-4</v>
       </c>
       <c r="M13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4059945504087193E-3</v>
       </c>
       <c r="O13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="P13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.666666666666657</v>
       </c>
       <c r="S13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>89</v>
       </c>
     </row>
@@ -1172,28 +1259,35 @@
       <c r="G14">
         <v>153</v>
       </c>
+      <c r="H14">
+        <v>190</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
       <c r="L14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1430645942021191E-4</v>
       </c>
       <c r="M14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.18545454545454546</v>
       </c>
       <c r="O14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>104.08163265306123</v>
       </c>
       <c r="P14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23.387096774193548</v>
       </c>
       <c r="S14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
     </row>
@@ -1219,28 +1313,35 @@
       <c r="G15">
         <v>122</v>
       </c>
+      <c r="H15">
+        <v>134</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
       <c r="L15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3274721448467967E-4</v>
       </c>
       <c r="M15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9429502852485738E-2</v>
       </c>
       <c r="O15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>128.94736842105263</v>
       </c>
       <c r="P15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.988505747126435</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.018691588785046</v>
       </c>
       <c r="S15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
     </row>
@@ -1266,28 +1367,35 @@
       <c r="G16">
         <v>4</v>
       </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.016002032004064E-4</v>
       </c>
       <c r="M16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0876826722338203E-3</v>
       </c>
       <c r="O16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="P16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33.333333333333329</v>
       </c>
       <c r="S16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
     </row>
@@ -1313,12 +1421,19 @@
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9380220546909824E-5</v>
       </c>
       <c r="M17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.8927519151443723E-4</v>
       </c>
       <c r="O17">
@@ -1331,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1357,28 +1472,35 @@
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8007959518107003E-5</v>
       </c>
       <c r="M18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.876172607879925E-3</v>
       </c>
       <c r="O18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1404,28 +1526,35 @@
       <c r="G19">
         <v>2</v>
       </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="L19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3289502155495265E-5</v>
       </c>
       <c r="M19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0404040404040404E-3</v>
       </c>
       <c r="O19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
     </row>
@@ -1451,28 +1580,35 @@
       <c r="G20">
         <v>4</v>
       </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="L20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.1266126246927128E-5</v>
       </c>
       <c r="M20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0790273556231003E-3</v>
       </c>
       <c r="O20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="P20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
     </row>
@@ -1498,28 +1634,35 @@
       <c r="G21">
         <v>2</v>
       </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1356492969396195E-4</v>
       </c>
       <c r="M21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1061946902654867E-3</v>
       </c>
       <c r="O21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1545,28 +1688,35 @@
       <c r="G22">
         <v>5</v>
       </c>
+      <c r="H22">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="L22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.749655140346254E-5</v>
       </c>
       <c r="M22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4293552812071329E-3</v>
       </c>
       <c r="O22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33.333333333333329</v>
       </c>
       <c r="P22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="S22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
     </row>
@@ -1592,28 +1742,35 @@
       <c r="G23">
         <v>2</v>
       </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="L23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7207409510535236E-5</v>
       </c>
       <c r="M23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0770059235325794E-3</v>
       </c>
       <c r="O23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="P23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
     </row>
@@ -1639,12 +1796,19 @@
       <c r="G24">
         <v>0</v>
       </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O24">
@@ -1657,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1683,28 +1847,35 @@
       <c r="G25">
         <v>3</v>
       </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5876469958558254E-5</v>
       </c>
       <c r="M25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.6874999999999998E-3</v>
       </c>
       <c r="O25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="P25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
     </row>
@@ -1730,27 +1901,34 @@
       <c r="G26">
         <v>7</v>
       </c>
+      <c r="H26">
+        <v>9</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="L26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5313308461098556E-5</v>
       </c>
       <c r="M26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0574018126888218E-2</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="S26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
     </row>
@@ -1776,28 +1954,35 @@
       <c r="G27">
         <v>118</v>
       </c>
+      <c r="H27">
+        <v>139</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
       <c r="L27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.585288522511097E-4</v>
       </c>
       <c r="M27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.6383601756954614E-2</v>
       </c>
       <c r="O27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80.952380952380949</v>
       </c>
       <c r="P27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26.315789473684209</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22.916666666666664</v>
       </c>
       <c r="S27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
     </row>
@@ -1823,28 +2008,35 @@
       <c r="G28">
         <v>4</v>
       </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="L28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.9651128059101138E-5</v>
       </c>
       <c r="M28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.7560975609756097E-3</v>
       </c>
       <c r="O28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33.333333333333329</v>
       </c>
       <c r="S28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
@@ -1870,29 +2062,35 @@
       <c r="G29" s="1">
         <v>3285</v>
       </c>
-      <c r="J29" s="1"/>
+      <c r="H29" s="1">
+        <v>3914</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>629</v>
+      </c>
       <c r="L29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4523490293624937E-3</v>
       </c>
       <c r="M29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.2516556291390728</v>
       </c>
       <c r="O29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>97.893030794165313</v>
       </c>
       <c r="P29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17.485667485667484</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.499825723248518</v>
       </c>
       <c r="S29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
     </row>
@@ -1918,29 +2116,35 @@
       <c r="G30">
         <v>12</v>
       </c>
-      <c r="J30" s="1"/>
+      <c r="H30">
+        <v>14</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="L30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5435189334269569E-5</v>
       </c>
       <c r="M30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0526315789473684E-2</v>
       </c>
       <c r="O30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="P30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="S30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
     </row>
@@ -1966,28 +2170,35 @@
       <c r="G31">
         <v>9</v>
       </c>
+      <c r="H31">
+        <v>13</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="L31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8317764967344751E-5</v>
       </c>
       <c r="M31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.4196207749381701E-3</v>
       </c>
       <c r="O31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="P31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28.571428571428569</v>
       </c>
       <c r="S31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
     </row>
@@ -2013,28 +2224,35 @@
       <c r="G32">
         <v>65</v>
       </c>
+      <c r="H32">
+        <v>83</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
       <c r="L32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3917854680467467E-4</v>
       </c>
       <c r="M32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.0645161290322578E-2</v>
       </c>
       <c r="O32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>205.88235294117646</v>
       </c>
       <c r="P32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="S32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
     </row>
@@ -2060,28 +2278,35 @@
       <c r="G33">
         <v>9</v>
       </c>
+      <c r="H33">
+        <v>11</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="L33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.3386608110737416E-5</v>
       </c>
       <c r="M33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3595166163141994E-2</v>
       </c>
       <c r="O33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="P33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="S33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
     </row>
@@ -2107,28 +2332,35 @@
       <c r="G34">
         <v>638</v>
       </c>
+      <c r="H34">
+        <v>751</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
       <c r="L34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7113137149187393E-3</v>
       </c>
       <c r="M34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.76042908224076278</v>
       </c>
       <c r="O34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>138.65030674846625</v>
       </c>
       <c r="P34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.020565552699228</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28.112449799196789</v>
       </c>
       <c r="S34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
     </row>
@@ -2154,12 +2386,19 @@
       <c r="G35">
         <v>2</v>
       </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6638528088053541E-5</v>
       </c>
       <c r="M35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4479804161566705E-3</v>
       </c>
       <c r="O35">
@@ -2172,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2198,27 +2437,34 @@
       <c r="G36">
         <v>2</v>
       </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="L36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6378809096790571E-5</v>
       </c>
       <c r="M36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5243902439024391E-3</v>
       </c>
       <c r="O36">
         <v>0</v>
       </c>
       <c r="P36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
     </row>
@@ -2244,27 +2490,34 @@
       <c r="G37">
         <v>2</v>
       </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="L37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2123869641336994E-5</v>
       </c>
       <c r="M37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9940179461615153E-3</v>
       </c>
       <c r="O37">
         <v>0</v>
       </c>
       <c r="P37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
     </row>
@@ -2290,28 +2543,35 @@
       <c r="G38">
         <v>84</v>
       </c>
+      <c r="H38">
+        <v>94</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="L38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.4244308494634435E-4</v>
       </c>
       <c r="M38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.34146341463414637</v>
       </c>
       <c r="O38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>104.54545454545455</v>
       </c>
       <c r="P38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>86.666666666666671</v>
       </c>
       <c r="S38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
     </row>
@@ -2337,28 +2597,35 @@
       <c r="G39">
         <v>31</v>
       </c>
+      <c r="H39">
+        <v>32</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="L39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9444392174573007E-4</v>
       </c>
       <c r="M39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.6616541353383459E-2</v>
       </c>
       <c r="O39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="P39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.8965517241379306</v>
       </c>
       <c r="S39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
     </row>
@@ -2384,28 +2651,35 @@
       <c r="G40">
         <v>968</v>
       </c>
+      <c r="H40">
+        <v>1197</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
       <c r="L40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.105679736402224E-3</v>
       </c>
       <c r="M40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.8643216080402008</v>
       </c>
       <c r="O40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>125.95419847328245</v>
       </c>
       <c r="P40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13.344594594594595</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44.26229508196721</v>
       </c>
       <c r="S40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>61</v>
       </c>
     </row>
@@ -2431,27 +2705,34 @@
       <c r="G41">
         <v>1</v>
       </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="L41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.9330379475452008E-6</v>
       </c>
       <c r="M41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5448422545196739E-4</v>
       </c>
       <c r="O41">
         <v>0</v>
       </c>
       <c r="P41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2477,28 +2758,35 @@
       <c r="G42">
         <v>64</v>
       </c>
+      <c r="H42">
+        <v>73</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="L42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9142969031041815E-4</v>
       </c>
       <c r="M42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.582938388625593E-2</v>
       </c>
       <c r="O42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51.428571428571423</v>
       </c>
       <c r="P42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20.754716981132077</v>
       </c>
       <c r="S42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
     </row>
@@ -2524,28 +2812,35 @@
       <c r="G43">
         <v>55</v>
       </c>
+      <c r="H43">
+        <v>62</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="L43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5546478636566339E-4</v>
       </c>
       <c r="M43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.26190476190476192</v>
       </c>
       <c r="O43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37.5</v>
       </c>
       <c r="P43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="S43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
     </row>
@@ -2571,28 +2866,35 @@
       <c r="G44">
         <v>2</v>
       </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.1070567040214963E-5</v>
       </c>
       <c r="M44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.1948881789137379E-3</v>
       </c>
       <c r="O44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
     </row>
@@ -2618,12 +2920,19 @@
       <c r="G45">
         <v>0</v>
       </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O45">
@@ -2636,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="S45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2662,12 +2971,19 @@
       <c r="G46">
         <v>0</v>
       </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O46">
@@ -2680,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="S46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2706,28 +3022,35 @@
       <c r="G47">
         <v>8</v>
       </c>
+      <c r="H47">
+        <v>11</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="L47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.0816244065057071E-5</v>
       </c>
       <c r="M47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6980056980056983E-3</v>
       </c>
       <c r="O47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="P47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>67</v>
       </c>
     </row>
@@ -2753,29 +3076,35 @@
       <c r="G48" s="1">
         <v>2260</v>
       </c>
-      <c r="J48" s="1"/>
+      <c r="H48" s="1">
+        <v>2735</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>475</v>
+      </c>
       <c r="L48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.513375966786085E-3</v>
       </c>
       <c r="M48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.95238095238095233</v>
       </c>
       <c r="O48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>120.24169184290029</v>
       </c>
       <c r="P48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.943758573388202</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20.212765957446805</v>
       </c>
       <c r="S48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
     </row>
@@ -2801,28 +3130,35 @@
       <c r="G49">
         <v>39</v>
       </c>
+      <c r="H49">
+        <v>53</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
       <c r="L49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0292080931564089E-4</v>
       </c>
       <c r="M49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.9117352056168508E-2</v>
       </c>
       <c r="O49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91.666666666666657</v>
       </c>
       <c r="P49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>69.565217391304344</v>
       </c>
       <c r="S49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
     </row>
@@ -2848,28 +3184,35 @@
       <c r="G50">
         <v>1</v>
       </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="L50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9559902200488996E-5</v>
       </c>
       <c r="M50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9120458891013384E-3</v>
       </c>
       <c r="O50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2895,28 +3238,35 @@
       <c r="G51">
         <v>16</v>
       </c>
+      <c r="H51">
+        <v>22</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="L51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5753613485093142E-4</v>
       </c>
       <c r="M51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.3613445378151259E-2</v>
       </c>
       <c r="O51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.363636363636367</v>
       </c>
       <c r="P51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.666666666666667</v>
       </c>
       <c r="S51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
@@ -2942,28 +3292,35 @@
       <c r="G52">
         <v>65</v>
       </c>
+      <c r="H52">
+        <v>78</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="L52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5617804518529476E-4</v>
       </c>
       <c r="M52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.5986218776916452E-2</v>
       </c>
       <c r="O52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94.444444444444443</v>
       </c>
       <c r="P52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>85.714285714285708</v>
       </c>
       <c r="S52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
     </row>
@@ -2989,28 +3346,35 @@
       <c r="G53">
         <v>2</v>
       </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0438157273958636E-5</v>
       </c>
       <c r="M53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2988505747126436E-3</v>
       </c>
       <c r="O53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="P53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
     </row>
@@ -3036,28 +3400,35 @@
       <c r="G54">
         <v>4</v>
       </c>
+      <c r="H54">
+        <v>4</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3275120222728426E-5</v>
       </c>
       <c r="M54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.7281323877068557E-3</v>
       </c>
       <c r="O54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="P54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33.333333333333329</v>
       </c>
       <c r="S54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>78</v>
       </c>
     </row>
@@ -3083,28 +3454,35 @@
       <c r="G55">
         <v>7</v>
       </c>
+      <c r="H55">
+        <v>8</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="L55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.4649148999701408E-5</v>
       </c>
       <c r="M55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.0578034682080926E-3</v>
       </c>
       <c r="O55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="P55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.666666666666664</v>
       </c>
       <c r="S55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
     </row>
@@ -3130,28 +3508,35 @@
       <c r="G56" s="1">
         <v>4691</v>
       </c>
+      <c r="H56" s="1">
+        <v>5944</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="1"/>
+        <v>1253</v>
+      </c>
       <c r="L56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9425094799038678E-3</v>
       </c>
       <c r="M56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.3819999999999997</v>
       </c>
       <c r="O56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108.65176640230713</v>
       </c>
       <c r="P56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34.450587422252937</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20.560267283474683</v>
       </c>
       <c r="S56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
     </row>
@@ -3177,28 +3562,35 @@
       <c r="G57">
         <v>4</v>
       </c>
+      <c r="H57">
+        <v>7</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="L57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.4887913651998582E-5</v>
       </c>
       <c r="M57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.7114093959731542E-3</v>
       </c>
       <c r="O57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="P57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
     </row>
@@ -3224,12 +3616,19 @@
       <c r="G58">
         <v>0</v>
       </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O58">
@@ -3242,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="S58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3268,30 +3667,40 @@
       <c r="G59">
         <v>17856</v>
       </c>
+      <c r="H59">
+        <v>21393</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="1"/>
+        <v>3537</v>
+      </c>
       <c r="L59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1841846487390482E-3</v>
       </c>
       <c r="M59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38.08223852584883</v>
       </c>
       <c r="O59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>98.116245371115767</v>
       </c>
       <c r="P59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21.121495327102803</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19.806763285024154</v>
       </c>
       <c r="S59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I61" s="1"/>
     </row>
     <row r="70" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E70" s="1"/>

--- a/covid counties/data.xlsx
+++ b/covid counties/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FreeLance\covid19countiesprediction\covid counties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE566BBA-8C65-4ED7-9F05-DD6F712B915C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9DAB42-0B5A-40D4-A2B9-650F82B140F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,21 +547,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J59"/>
+    <sheetView tabSelected="1" topLeftCell="D33" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="27.88671875" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -586,20 +586,23 @@
       <c r="H1" s="2">
         <v>43916</v>
       </c>
-      <c r="L1" t="s">
+      <c r="I1" s="2">
+        <v>43917</v>
+      </c>
+      <c r="M1" t="s">
         <v>61</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>62</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>63</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -624,36 +627,43 @@
       <c r="H2">
         <v>171</v>
       </c>
-      <c r="J2">
+      <c r="I2">
+        <v>187</v>
+      </c>
+      <c r="K2">
         <f>H2-G2</f>
         <v>19</v>
       </c>
-      <c r="L2">
-        <f>G2/B2</f>
-        <v>4.9966469868903765E-4</v>
-      </c>
       <c r="M2">
-        <f>G2/C2</f>
-        <v>0.28517823639774859</v>
-      </c>
-      <c r="O2">
+        <f>H2/B2</f>
+        <v>5.6212278602516734E-4</v>
+      </c>
+      <c r="N2">
+        <f>I2/C2</f>
+        <v>0.35084427767354598</v>
+      </c>
+      <c r="P2">
         <f>(E2-D2)/D2*100</f>
         <v>44.31818181818182</v>
       </c>
-      <c r="P2">
-        <f t="shared" ref="P2:Q2" si="0">(F2-E2)/E2*100</f>
+      <c r="Q2">
+        <f>(F2-E2)/E2*100</f>
         <v>14.960629921259844</v>
       </c>
-      <c r="Q2">
-        <f t="shared" si="0"/>
+      <c r="R2">
+        <f>(G2-F2)/F2*100</f>
         <v>4.10958904109589</v>
       </c>
       <c r="S2">
-        <f>ROUND(AVERAGE(O2:Q2),0)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+        <f>(H2-G2)/G2*100</f>
+        <v>12.5</v>
+      </c>
+      <c r="T2">
+        <f>ROUND(AVERAGE(P2:S2),0)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -678,36 +688,43 @@
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J59" si="1">H3-G3</f>
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L59" si="2">G3/B3</f>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f>H3-G3</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M59" si="0">H3/B3</f>
         <v>4.0861357414293305E-5</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M59" si="3">G3/C3</f>
+      <c r="N3">
+        <f t="shared" ref="N3:N59" si="1">I3/C3</f>
         <v>1.9342359767891683E-3</v>
       </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O59" si="4">(E3-D3)/D3*100</f>
-        <v>0</v>
-      </c>
       <c r="P3">
-        <f t="shared" ref="P3:P59" si="5">(F3-E3)/E3*100</f>
+        <f>(E3-D3)/D3*100</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q59" si="6">(G3-F3)/F3*100</f>
+        <f>(F3-E3)/E3*100</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>(G3-F3)/F3*100</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S59" si="7">ROUND(AVERAGE(O3:Q3),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" ref="S3:S59" si="2">(H3-G3)/G3*100</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T59" si="3">ROUND(AVERAGE(P3:S3),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -732,36 +749,43 @@
       <c r="H4">
         <v>16</v>
       </c>
-      <c r="J4">
-        <f t="shared" si="1"/>
+      <c r="I4">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <f>H4-G4</f>
         <v>5</v>
       </c>
-      <c r="L4">
-        <f t="shared" si="2"/>
-        <v>5.4835493519441675E-5</v>
-      </c>
       <c r="M4">
-        <f t="shared" si="3"/>
-        <v>1.5384615384615385E-2</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>7.9760717846460614E-5</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>2.5174825174825177E-2</v>
+      </c>
+      <c r="P4">
+        <f>(E4-D4)/D4*100</f>
         <v>250</v>
       </c>
-      <c r="P4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q4">
-        <f t="shared" si="6"/>
+        <f>(F4-E4)/E4*100</f>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f>(G4-F4)/F4*100</f>
         <v>57.142857142857139</v>
       </c>
       <c r="S4">
-        <f t="shared" si="7"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>45.454545454545453</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -786,19 +810,19 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="2"/>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>H5-G5</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P5">
@@ -807,12 +831,18 @@
       <c r="Q5">
         <v>0</v>
       </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
       <c r="S5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -837,35 +867,42 @@
       <c r="H6">
         <v>2</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="2"/>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <f>H6-G6</f>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
         <v>2.4991877639767076E-5</v>
       </c>
-      <c r="M6">
-        <f t="shared" si="3"/>
+      <c r="N6">
+        <f t="shared" si="1"/>
         <v>2.3148148148148147E-3</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
       <c r="P6">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="6"/>
+        <f>(F6-E6)/E6*100</f>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f>(G6-F6)/F6*100</f>
         <v>0</v>
       </c>
       <c r="S6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -890,33 +927,40 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="2"/>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f>H7-G7</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
         <v>7.4126236981579634E-6</v>
       </c>
-      <c r="M7">
-        <f t="shared" si="3"/>
+      <c r="N7">
+        <f t="shared" si="1"/>
         <v>6.6666666666666664E-4</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
       <c r="S7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -941,20 +985,20 @@
       <c r="H8">
         <v>7</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
+      <c r="I8">
+        <v>11</v>
+      </c>
+      <c r="K8">
+        <f>H8-G8</f>
         <v>6</v>
       </c>
-      <c r="L8">
-        <f t="shared" si="2"/>
-        <v>1.1257458065968705E-5</v>
-      </c>
       <c r="M8">
-        <f t="shared" si="3"/>
-        <v>2.4342153306881526E-3</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.8802206461780935E-5</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>2.6776368637569679E-2</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -962,12 +1006,19 @@
       <c r="Q8">
         <v>0</v>
       </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
       <c r="S8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -992,36 +1043,43 @@
       <c r="H9">
         <v>3</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="2"/>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <f>H9-G9</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
         <v>5.9433009093250389E-5</v>
       </c>
-      <c r="M9">
-        <f t="shared" si="3"/>
-        <v>3.3375980419424818E-3</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="4"/>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>4.4501307225899758E-3</v>
+      </c>
+      <c r="P9">
+        <f>(E9-D9)/D9*100</f>
         <v>50</v>
       </c>
-      <c r="P9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q9">
-        <f t="shared" si="6"/>
+        <f>(F9-E9)/E9*100</f>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f>(G9-F9)/F9*100</f>
         <v>0</v>
       </c>
       <c r="S9">
-        <f t="shared" si="7"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1046,36 +1104,43 @@
       <c r="H10">
         <v>11</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="2"/>
-        <v>1.2176115332164427E-4</v>
+      <c r="I10">
+        <v>11</v>
+      </c>
+      <c r="K10">
+        <f>H10-G10</f>
+        <v>1</v>
       </c>
       <c r="M10">
-        <f t="shared" si="3"/>
-        <v>8.9445438282647581E-3</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>1.3393726865380869E-4</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>9.8389982110912346E-3</v>
+      </c>
+      <c r="P10">
+        <f>(E10-D10)/D10*100</f>
         <v>50</v>
       </c>
-      <c r="P10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q10">
-        <f t="shared" si="6"/>
+        <f>(F10-E10)/E10*100</f>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f>(G10-F10)/F10*100</f>
         <v>66.666666666666657</v>
       </c>
       <c r="S10">
-        <f t="shared" si="7"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1100,36 +1165,43 @@
       <c r="H11">
         <v>13</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="2"/>
-        <v>1.9018638265500191E-4</v>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <f>H11-G11</f>
+        <v>1</v>
       </c>
       <c r="M11">
-        <f t="shared" si="3"/>
-        <v>1.8518518518518517E-2</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>2.0603524787625205E-4</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>3.0864197530864196E-2</v>
+      </c>
+      <c r="P11">
+        <f>(E11-D11)/D11*100</f>
         <v>400</v>
       </c>
-      <c r="P11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q11">
-        <f t="shared" si="6"/>
+        <f>(F11-E11)/E11*100</f>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f>(G11-F11)/F11*100</f>
         <v>20</v>
       </c>
       <c r="S11">
-        <f t="shared" si="7"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1154,36 +1226,43 @@
       <c r="H12">
         <v>2</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="2"/>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <f>H12-G12</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
         <v>4.0538349278417384E-5</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="3"/>
-        <v>3.9840637450199202E-3</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="4"/>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>7.9681274900398405E-3</v>
+      </c>
+      <c r="P12">
+        <f>(E12-D12)/D12*100</f>
         <v>100</v>
       </c>
-      <c r="P12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q12">
-        <f t="shared" si="6"/>
+        <f>(F12-E12)/E12*100</f>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f>(G12-F12)/F12*100</f>
         <v>0</v>
       </c>
       <c r="S12">
-        <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1208,36 +1287,43 @@
       <c r="H13">
         <v>7</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="2"/>
-        <v>1.0421008753647353E-4</v>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <f>H13-G13</f>
+        <v>2</v>
       </c>
       <c r="M13">
-        <f t="shared" si="3"/>
-        <v>3.4059945504087193E-3</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>1.4589412255106295E-4</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>5.4495912806539508E-3</v>
+      </c>
+      <c r="P13">
+        <f>(E13-D13)/D13*100</f>
         <v>200</v>
       </c>
-      <c r="P13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q13">
-        <f t="shared" si="6"/>
+        <f>(F13-E13)/E13*100</f>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f>(G13-F13)/F13*100</f>
         <v>66.666666666666657</v>
       </c>
       <c r="S13">
-        <f t="shared" si="7"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1262,36 +1348,43 @@
       <c r="H14">
         <v>190</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="1"/>
+      <c r="I14">
+        <v>225</v>
+      </c>
+      <c r="K14">
+        <f>H14-G14</f>
         <v>37</v>
       </c>
-      <c r="L14">
-        <f t="shared" si="2"/>
-        <v>5.1430645942021191E-4</v>
-      </c>
       <c r="M14">
-        <f t="shared" si="3"/>
-        <v>0.18545454545454546</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>6.3868122411660298E-4</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="P14">
+        <f>(E14-D14)/D14*100</f>
         <v>104.08163265306123</v>
       </c>
-      <c r="P14">
-        <f t="shared" si="5"/>
+      <c r="Q14">
+        <f>(F14-E14)/E14*100</f>
         <v>24</v>
       </c>
-      <c r="Q14">
-        <f t="shared" si="6"/>
+      <c r="R14">
+        <f>(G14-F14)/F14*100</f>
         <v>23.387096774193548</v>
       </c>
       <c r="S14">
-        <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>24.183006535947712</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1316,36 +1409,43 @@
       <c r="H15">
         <v>134</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="1"/>
+      <c r="I15">
+        <v>219</v>
+      </c>
+      <c r="K15">
+        <f>H15-G15</f>
         <v>12</v>
       </c>
-      <c r="L15">
-        <f t="shared" si="2"/>
-        <v>1.3274721448467967E-4</v>
-      </c>
       <c r="M15">
-        <f t="shared" si="3"/>
-        <v>9.9429502852485738E-2</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>1.4580431754874652E-4</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>0.17848410757946209</v>
+      </c>
+      <c r="P15">
+        <f>(E15-D15)/D15*100</f>
         <v>128.94736842105263</v>
       </c>
-      <c r="P15">
-        <f t="shared" si="5"/>
+      <c r="Q15">
+        <f>(F15-E15)/E15*100</f>
         <v>22.988505747126435</v>
       </c>
-      <c r="Q15">
-        <f t="shared" si="6"/>
+      <c r="R15">
+        <f>(G15-F15)/F15*100</f>
         <v>14.018691588785046</v>
       </c>
       <c r="S15">
-        <f t="shared" si="7"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>9.8360655737704921</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1370,36 +1470,43 @@
       <c r="H16">
         <v>4</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="2"/>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <f>H16-G16</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
         <v>1.016002032004064E-4</v>
       </c>
-      <c r="M16">
-        <f t="shared" si="3"/>
+      <c r="N16">
+        <f t="shared" si="1"/>
         <v>2.0876826722338203E-3</v>
       </c>
-      <c r="O16">
-        <f t="shared" si="4"/>
+      <c r="P16">
+        <f>(E16-D16)/D16*100</f>
         <v>50</v>
       </c>
-      <c r="P16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q16">
-        <f t="shared" si="6"/>
+        <f>(F16-E16)/E16*100</f>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f>(G16-F16)/F16*100</f>
         <v>33.333333333333329</v>
       </c>
       <c r="S16">
-        <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1424,20 +1531,20 @@
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="2"/>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <f>H17-G17</f>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
         <v>1.9380220546909824E-5</v>
       </c>
-      <c r="M17">
-        <f t="shared" si="3"/>
-        <v>5.8927519151443723E-4</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>1.1785503830288745E-3</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1445,12 +1552,19 @@
       <c r="Q17">
         <v>0</v>
       </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
       <c r="S17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1475,36 +1589,43 @@
       <c r="H18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="2"/>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <f>H18-G18</f>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
         <v>1.8007959518107003E-5</v>
       </c>
-      <c r="M18">
-        <f t="shared" si="3"/>
+      <c r="N18">
+        <f t="shared" si="1"/>
         <v>1.876172607879925E-3</v>
       </c>
-      <c r="O18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="P18">
-        <f t="shared" si="5"/>
+        <f>(E18-D18)/D18*100</f>
         <v>0</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="6"/>
+        <f>(F18-E18)/E18*100</f>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f>(G18-F18)/F18*100</f>
         <v>0</v>
       </c>
       <c r="S18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1529,36 +1650,43 @@
       <c r="H19">
         <v>4</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="2"/>
-        <v>3.3289502155495265E-5</v>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="K19">
+        <f>H19-G19</f>
+        <v>2</v>
       </c>
       <c r="M19">
-        <f t="shared" si="3"/>
-        <v>4.0404040404040404E-3</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6.657900431099053E-5</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>1.2121212121212121E-2</v>
       </c>
       <c r="P19">
-        <f t="shared" si="5"/>
+        <f>(E19-D19)/D19*100</f>
         <v>0</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="6"/>
+        <f>(F19-E19)/E19*100</f>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f>(G19-F19)/F19*100</f>
         <v>100</v>
       </c>
       <c r="S19">
-        <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1583,36 +1711,43 @@
       <c r="H20">
         <v>5</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="2"/>
-        <v>8.1266126246927128E-5</v>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="K20">
+        <f>H20-G20</f>
+        <v>1</v>
       </c>
       <c r="M20">
-        <f t="shared" si="3"/>
-        <v>6.0790273556231003E-3</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>1.0158265780865891E-4</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>9.11854103343465E-3</v>
+      </c>
+      <c r="P20">
+        <f>(E20-D20)/D20*100</f>
         <v>100</v>
       </c>
-      <c r="P20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q20">
-        <f t="shared" si="6"/>
+        <f>(F20-E20)/E20*100</f>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f>(G20-F20)/F20*100</f>
         <v>0</v>
       </c>
       <c r="S20">
-        <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1637,36 +1772,43 @@
       <c r="H21">
         <v>2</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="2"/>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <f>H21-G21</f>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
         <v>4.1356492969396195E-4</v>
       </c>
-      <c r="M21">
-        <f t="shared" si="3"/>
+      <c r="N21">
+        <f t="shared" si="1"/>
         <v>1.1061946902654867E-3</v>
       </c>
-      <c r="O21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="P21">
-        <f t="shared" si="5"/>
+        <f>(E21-D21)/D21*100</f>
         <v>0</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="6"/>
+        <f>(F21-E21)/E21*100</f>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f>(G21-F21)/F21*100</f>
         <v>0</v>
       </c>
       <c r="S21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1691,36 +1833,43 @@
       <c r="H22">
         <v>7</v>
       </c>
-      <c r="J22">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="2"/>
-        <v>7.749655140346254E-5</v>
+      <c r="I22">
+        <v>9</v>
+      </c>
+      <c r="K22">
+        <f>H22-G22</f>
+        <v>2</v>
       </c>
       <c r="M22">
-        <f t="shared" si="3"/>
-        <v>3.4293552812071329E-3</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>1.0849517196484756E-4</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>6.1728395061728392E-3</v>
+      </c>
+      <c r="P22">
+        <f>(E22-D22)/D22*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="P22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q22">
-        <f t="shared" si="6"/>
+        <f>(F22-E22)/E22*100</f>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f>(G22-F22)/F22*100</f>
         <v>25</v>
       </c>
       <c r="S22">
-        <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1745,36 +1894,43 @@
       <c r="H23">
         <v>3</v>
       </c>
-      <c r="J23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="2"/>
-        <v>1.7207409510535236E-5</v>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <f>H23-G23</f>
+        <v>1</v>
       </c>
       <c r="M23">
-        <f t="shared" si="3"/>
-        <v>1.0770059235325794E-3</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>2.5811114265802855E-5</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>1.6155088852988692E-3</v>
+      </c>
+      <c r="P23">
+        <f>(E23-D23)/D23*100</f>
         <v>100</v>
       </c>
-      <c r="P23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q23">
-        <f t="shared" si="6"/>
+        <f>(F23-E23)/E23*100</f>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f>(G23-F23)/F23*100</f>
         <v>0</v>
       </c>
       <c r="S23">
-        <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1799,19 +1955,19 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="J24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="2"/>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f>H24-G24</f>
         <v>0</v>
       </c>
       <c r="M24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P24">
@@ -1820,12 +1976,18 @@
       <c r="Q24">
         <v>0</v>
       </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
       <c r="S24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1850,36 +2012,43 @@
       <c r="H25">
         <v>3</v>
       </c>
-      <c r="J25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="2"/>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <f>H25-G25</f>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
         <v>4.5876469958558254E-5</v>
       </c>
-      <c r="M25">
-        <f t="shared" si="3"/>
+      <c r="N25">
+        <f t="shared" si="1"/>
         <v>4.6874999999999998E-3</v>
       </c>
-      <c r="O25">
-        <f t="shared" si="4"/>
+      <c r="P25">
+        <f>(E25-D25)/D25*100</f>
         <v>50</v>
       </c>
-      <c r="P25">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q25">
-        <f t="shared" si="6"/>
+        <f>(F25-E25)/E25*100</f>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f>(G25-F25)/F25*100</f>
         <v>0</v>
       </c>
       <c r="S25">
-        <f t="shared" si="7"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1904,35 +2073,42 @@
       <c r="H26">
         <v>9</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="2"/>
-        <v>9.5313308461098556E-5</v>
+      <c r="I26">
+        <v>17</v>
+      </c>
+      <c r="K26">
+        <f>H26-G26</f>
+        <v>2</v>
       </c>
       <c r="M26">
-        <f t="shared" si="3"/>
-        <v>1.0574018126888218E-2</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.2254568230712671E-4</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>2.5679758308157101E-2</v>
       </c>
       <c r="P26">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="6"/>
+        <f>(F26-E26)/E26*100</f>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f>(G26-F26)/F26*100</f>
         <v>75</v>
       </c>
       <c r="S26">
-        <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1957,36 +2133,44 @@
       <c r="H27">
         <v>139</v>
       </c>
-      <c r="J27">
-        <f t="shared" si="1"/>
+      <c r="I27">
+        <v>160</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27">
+        <f>H27-G27</f>
         <v>21</v>
       </c>
-      <c r="L27">
-        <f t="shared" si="2"/>
-        <v>1.585288522511097E-4</v>
-      </c>
       <c r="M27">
-        <f t="shared" si="3"/>
-        <v>8.6383601756954614E-2</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>1.8674161409240887E-4</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>0.1171303074670571</v>
+      </c>
+      <c r="P27">
+        <f>(E27-D27)/D27*100</f>
         <v>80.952380952380949</v>
       </c>
-      <c r="P27">
-        <f t="shared" si="5"/>
+      <c r="Q27">
+        <f>(F27-E27)/E27*100</f>
         <v>26.315789473684209</v>
       </c>
-      <c r="Q27">
-        <f t="shared" si="6"/>
+      <c r="R27">
+        <f>(G27-F27)/F27*100</f>
         <v>22.916666666666664</v>
       </c>
       <c r="S27">
-        <f t="shared" si="7"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>17.796610169491526</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -2011,36 +2195,43 @@
       <c r="H28">
         <v>5</v>
       </c>
-      <c r="J28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="2"/>
-        <v>7.9651128059101138E-5</v>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <f>H28-G28</f>
+        <v>1</v>
       </c>
       <c r="M28">
-        <f t="shared" si="3"/>
-        <v>9.7560975609756097E-3</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9.9563910073876416E-5</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>1.2195121951219513E-2</v>
       </c>
       <c r="P28">
-        <f t="shared" si="5"/>
+        <f>(E28-D28)/D28*100</f>
         <v>0</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="6"/>
+        <f>(F28-E28)/E28*100</f>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f>(G28-F28)/F28*100</f>
         <v>33.333333333333329</v>
       </c>
       <c r="S28">
-        <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -2065,36 +2256,44 @@
       <c r="H29" s="1">
         <v>3914</v>
       </c>
-      <c r="J29">
-        <f t="shared" si="1"/>
+      <c r="I29" s="1">
+        <v>4657</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29">
+        <f>H29-G29</f>
         <v>629</v>
       </c>
-      <c r="L29">
-        <f t="shared" si="2"/>
-        <v>2.4523490293624937E-3</v>
-      </c>
       <c r="M29">
-        <f t="shared" si="3"/>
-        <v>7.2516556291390728</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>2.9219160124580824E-3</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="1"/>
+        <v>10.280353200883003</v>
+      </c>
+      <c r="P29">
+        <f>(E29-D29)/D29*100</f>
         <v>97.893030794165313</v>
       </c>
-      <c r="P29">
-        <f t="shared" si="5"/>
+      <c r="Q29">
+        <f>(F29-E29)/E29*100</f>
         <v>17.485667485667484</v>
       </c>
-      <c r="Q29">
-        <f t="shared" si="6"/>
+      <c r="R29">
+        <f>(G29-F29)/F29*100</f>
         <v>14.499825723248518</v>
       </c>
       <c r="S29">
-        <f t="shared" si="7"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>19.147640791476409</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2119,36 +2318,43 @@
       <c r="H30">
         <v>14</v>
       </c>
-      <c r="J30">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="2"/>
-        <v>5.5435189334269569E-5</v>
+      <c r="I30">
+        <v>23</v>
+      </c>
+      <c r="K30">
+        <f>H30-G30</f>
+        <v>2</v>
       </c>
       <c r="M30">
-        <f t="shared" si="3"/>
-        <v>1.0526315789473684E-2</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>6.4674387556647837E-5</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="1"/>
+        <v>2.0175438596491228E-2</v>
+      </c>
+      <c r="P30">
+        <f>(E30-D30)/D30*100</f>
         <v>150</v>
       </c>
-      <c r="P30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q30">
-        <f t="shared" si="6"/>
+        <f>(F30-E30)/E30*100</f>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f>(G30-F30)/F30*100</f>
         <v>20</v>
       </c>
       <c r="S30">
-        <f t="shared" si="7"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2173,36 +2379,43 @@
       <c r="H31">
         <v>13</v>
       </c>
-      <c r="J31">
-        <f t="shared" si="1"/>
+      <c r="I31">
+        <v>13</v>
+      </c>
+      <c r="K31">
+        <f>H31-G31</f>
         <v>4</v>
       </c>
-      <c r="L31">
-        <f t="shared" si="2"/>
-        <v>3.8317764967344751E-5</v>
-      </c>
       <c r="M31">
-        <f t="shared" si="3"/>
-        <v>7.4196207749381701E-3</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>5.5347882730609085E-5</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>1.0717230008244023E-2</v>
+      </c>
+      <c r="P31">
+        <f>(E31-D31)/D31*100</f>
         <v>75</v>
       </c>
-      <c r="P31">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q31">
-        <f t="shared" si="6"/>
+        <f>(F31-E31)/E31*100</f>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f>(G31-F31)/F31*100</f>
         <v>28.571428571428569</v>
       </c>
       <c r="S31">
-        <f t="shared" si="7"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -2227,36 +2440,43 @@
       <c r="H32">
         <v>83</v>
       </c>
-      <c r="J32">
-        <f t="shared" si="1"/>
+      <c r="I32">
+        <v>115</v>
+      </c>
+      <c r="K32">
+        <f>H32-G32</f>
         <v>18</v>
       </c>
-      <c r="L32">
-        <f t="shared" si="2"/>
-        <v>1.3917854680467467E-4</v>
-      </c>
       <c r="M32">
-        <f t="shared" si="3"/>
-        <v>8.0645161290322578E-2</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>1.7772029822750768E-4</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>0.14267990074441686</v>
+      </c>
+      <c r="P32">
+        <f>(E32-D32)/D32*100</f>
         <v>205.88235294117646</v>
       </c>
-      <c r="P32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q32">
-        <f t="shared" si="6"/>
+        <f>(F32-E32)/E32*100</f>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f>(G32-F32)/F32*100</f>
         <v>25</v>
       </c>
       <c r="S32">
-        <f t="shared" si="7"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>27.692307692307693</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -2281,36 +2501,43 @@
       <c r="H33">
         <v>11</v>
       </c>
-      <c r="J33">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="2"/>
-        <v>8.3386608110737416E-5</v>
+      <c r="I33">
+        <v>14</v>
+      </c>
+      <c r="K33">
+        <f>H33-G33</f>
+        <v>2</v>
       </c>
       <c r="M33">
-        <f t="shared" si="3"/>
-        <v>1.3595166163141994E-2</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>1.0191696546867906E-4</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="1"/>
+        <v>2.1148036253776436E-2</v>
+      </c>
+      <c r="P33">
+        <f>(E33-D33)/D33*100</f>
         <v>50</v>
       </c>
-      <c r="P33">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q33">
-        <f t="shared" si="6"/>
+        <f>(F33-E33)/E33*100</f>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f>(G33-F33)/F33*100</f>
         <v>50</v>
       </c>
       <c r="S33">
-        <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -2335,36 +2562,43 @@
       <c r="H34">
         <v>751</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="1"/>
+      <c r="I34">
+        <v>910</v>
+      </c>
+      <c r="K34">
+        <f>H34-G34</f>
         <v>113</v>
       </c>
-      <c r="L34">
-        <f t="shared" si="2"/>
-        <v>1.7113137149187393E-3</v>
-      </c>
       <c r="M34">
-        <f t="shared" si="3"/>
-        <v>0.76042908224076278</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>2.0144147333918077E-3</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="1"/>
+        <v>1.0846245530393326</v>
+      </c>
+      <c r="P34">
+        <f>(E34-D34)/D34*100</f>
         <v>138.65030674846625</v>
       </c>
-      <c r="P34">
-        <f t="shared" si="5"/>
+      <c r="Q34">
+        <f>(F34-E34)/E34*100</f>
         <v>28.020565552699228</v>
       </c>
-      <c r="Q34">
-        <f t="shared" si="6"/>
+      <c r="R34">
+        <f>(G34-F34)/F34*100</f>
         <v>28.112449799196789</v>
       </c>
       <c r="S34">
-        <f t="shared" si="7"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>17.711598746081506</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -2389,20 +2623,20 @@
       <c r="H35">
         <v>2</v>
       </c>
-      <c r="J35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="2"/>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <f>H35-G35</f>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="0"/>
         <v>4.6638528088053541E-5</v>
       </c>
-      <c r="M35">
-        <f t="shared" si="3"/>
-        <v>2.4479804161566705E-3</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
+      <c r="N35">
+        <f t="shared" si="1"/>
+        <v>3.6719706242350062E-3</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -2410,12 +2644,19 @@
       <c r="Q35">
         <v>0</v>
       </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
       <c r="S35">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -2440,35 +2681,42 @@
       <c r="H36">
         <v>4</v>
       </c>
-      <c r="J36">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="2"/>
-        <v>1.6378809096790571E-5</v>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="K36">
+        <f>H36-G36</f>
+        <v>2</v>
       </c>
       <c r="M36">
-        <f t="shared" si="3"/>
-        <v>1.5243902439024391E-3</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.2757618193581142E-5</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="1"/>
+        <v>3.0487804878048782E-3</v>
       </c>
       <c r="P36">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="6"/>
+        <f>(F36-E36)/E36*100</f>
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <f>(G36-F36)/F36*100</f>
         <v>100</v>
       </c>
       <c r="S36">
-        <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -2493,35 +2741,42 @@
       <c r="H37">
         <v>3</v>
       </c>
-      <c r="J37">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="2"/>
-        <v>3.2123869641336994E-5</v>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="K37">
+        <f>H37-G37</f>
+        <v>1</v>
       </c>
       <c r="M37">
-        <f t="shared" si="3"/>
-        <v>1.9940179461615153E-3</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.8185804462005495E-5</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="1"/>
+        <v>4.9850448654037887E-3</v>
       </c>
       <c r="P37">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="6"/>
+        <f>(F37-E37)/E37*100</f>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f>(G37-F37)/F37*100</f>
         <v>100</v>
       </c>
       <c r="S37">
-        <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -2546,36 +2801,43 @@
       <c r="H38">
         <v>94</v>
       </c>
-      <c r="J38">
-        <f t="shared" si="1"/>
+      <c r="I38">
+        <v>111</v>
+      </c>
+      <c r="K38">
+        <f>H38-G38</f>
         <v>10</v>
       </c>
-      <c r="L38">
-        <f t="shared" si="2"/>
-        <v>8.4244308494634435E-4</v>
-      </c>
       <c r="M38">
-        <f t="shared" si="3"/>
-        <v>0.34146341463414637</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>9.4273392839233779E-4</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="1"/>
+        <v>0.45121951219512196</v>
+      </c>
+      <c r="P38">
+        <f>(E38-D38)/D38*100</f>
         <v>104.54545454545455</v>
       </c>
-      <c r="P38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q38">
-        <f t="shared" si="6"/>
+        <f>(F38-E38)/E38*100</f>
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <f>(G38-F38)/F38*100</f>
         <v>86.666666666666671</v>
       </c>
       <c r="S38">
-        <f t="shared" si="7"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>11.904761904761903</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -2600,36 +2862,44 @@
       <c r="H39">
         <v>32</v>
       </c>
-      <c r="J39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="2"/>
-        <v>1.9444392174573007E-4</v>
+      <c r="I39">
+        <v>35</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39">
+        <f>H39-G39</f>
+        <v>1</v>
       </c>
       <c r="M39">
-        <f t="shared" si="3"/>
-        <v>4.6616541353383459E-2</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>2.0071630631817298E-4</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="1"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="P39">
+        <f>(E39-D39)/D39*100</f>
         <v>45</v>
       </c>
-      <c r="P39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q39">
-        <f t="shared" si="6"/>
+        <f>(F39-E39)/E39*100</f>
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <f>(G39-F39)/F39*100</f>
         <v>6.8965517241379306</v>
       </c>
       <c r="S39">
-        <f t="shared" si="7"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>3.225806451612903</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -2654,36 +2924,43 @@
       <c r="H40">
         <v>1197</v>
       </c>
-      <c r="J40">
-        <f t="shared" si="1"/>
+      <c r="I40">
+        <v>1457</v>
+      </c>
+      <c r="K40">
+        <f>H40-G40</f>
         <v>229</v>
       </c>
-      <c r="L40">
-        <f t="shared" si="2"/>
-        <v>3.105679736402224E-3</v>
-      </c>
       <c r="M40">
-        <f t="shared" si="3"/>
-        <v>4.8643216080402008</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>3.8403911616461386E-3</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="1"/>
+        <v>7.3216080402010046</v>
+      </c>
+      <c r="P40">
+        <f>(E40-D40)/D40*100</f>
         <v>125.95419847328245</v>
       </c>
-      <c r="P40">
-        <f t="shared" si="5"/>
+      <c r="Q40">
+        <f>(F40-E40)/E40*100</f>
         <v>13.344594594594595</v>
       </c>
-      <c r="Q40">
-        <f t="shared" si="6"/>
+      <c r="R40">
+        <f>(G40-F40)/F40*100</f>
         <v>44.26229508196721</v>
       </c>
       <c r="S40">
-        <f t="shared" si="7"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>23.65702479338843</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -2708,35 +2985,42 @@
       <c r="H41">
         <v>2</v>
       </c>
-      <c r="J41">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="2"/>
-        <v>8.9330379475452008E-6</v>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="K41">
+        <f>H41-G41</f>
+        <v>1</v>
       </c>
       <c r="M41">
-        <f t="shared" si="3"/>
-        <v>3.5448422545196739E-4</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.7866075895090402E-5</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="1"/>
+        <v>1.0634526763559022E-3</v>
       </c>
       <c r="P41">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="6"/>
+        <f>(F41-E41)/E41*100</f>
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <f>(G41-F41)/F41*100</f>
         <v>0</v>
       </c>
       <c r="S41">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2761,36 +3045,43 @@
       <c r="H42">
         <v>73</v>
       </c>
-      <c r="J42">
-        <f t="shared" si="1"/>
+      <c r="I42">
+        <v>82</v>
+      </c>
+      <c r="K42">
+        <f>H42-G42</f>
         <v>9</v>
       </c>
-      <c r="L42">
-        <f t="shared" si="2"/>
-        <v>2.9142969031041815E-4</v>
-      </c>
       <c r="M42">
-        <f t="shared" si="3"/>
-        <v>7.582938388625593E-2</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>3.324119905103207E-4</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="1"/>
+        <v>9.7156398104265407E-2</v>
+      </c>
+      <c r="P42">
+        <f>(E42-D42)/D42*100</f>
         <v>51.428571428571423</v>
       </c>
-      <c r="P42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q42">
-        <f t="shared" si="6"/>
+        <f>(F42-E42)/E42*100</f>
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <f>(G42-F42)/F42*100</f>
         <v>20.754716981132077</v>
       </c>
       <c r="S42">
-        <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>14.0625</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -2815,36 +3106,43 @@
       <c r="H43">
         <v>62</v>
       </c>
-      <c r="J43">
-        <f t="shared" si="1"/>
+      <c r="I43">
+        <v>66</v>
+      </c>
+      <c r="K43">
+        <f>H43-G43</f>
         <v>7</v>
       </c>
-      <c r="L43">
-        <f t="shared" si="2"/>
-        <v>3.5546478636566339E-4</v>
-      </c>
       <c r="M43">
-        <f t="shared" si="3"/>
-        <v>0.26190476190476192</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>4.0070575917583874E-4</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="1"/>
+        <v>0.31428571428571428</v>
+      </c>
+      <c r="P43">
+        <f>(E43-D43)/D43*100</f>
         <v>37.5</v>
       </c>
-      <c r="P43">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q43">
-        <f t="shared" si="6"/>
+        <f>(F43-E43)/E43*100</f>
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <f>(G43-F43)/F43*100</f>
         <v>25</v>
       </c>
       <c r="S43">
-        <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>12.727272727272727</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2869,36 +3167,43 @@
       <c r="H44">
         <v>2</v>
       </c>
-      <c r="J44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="2"/>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="K44">
+        <f>H44-G44</f>
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="0"/>
         <v>6.1070567040214963E-5</v>
       </c>
-      <c r="M44">
-        <f t="shared" si="3"/>
-        <v>3.1948881789137379E-3</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="N44">
+        <f t="shared" si="1"/>
+        <v>4.7923322683706068E-3</v>
       </c>
       <c r="P44">
-        <f t="shared" si="5"/>
+        <f>(E44-D44)/D44*100</f>
         <v>0</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="6"/>
+        <f>(F44-E44)/E44*100</f>
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <f>(G44-F44)/F44*100</f>
         <v>100</v>
       </c>
       <c r="S44">
-        <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -2923,19 +3228,20 @@
       <c r="H45">
         <v>0</v>
       </c>
-      <c r="J45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="2"/>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45">
+        <f>H45-G45</f>
         <v>0</v>
       </c>
       <c r="M45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P45">
@@ -2944,12 +3250,18 @@
       <c r="Q45">
         <v>0</v>
       </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
       <c r="S45">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -2974,19 +3286,19 @@
       <c r="H46">
         <v>0</v>
       </c>
-      <c r="J46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="2"/>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f>H46-G46</f>
         <v>0</v>
       </c>
       <c r="M46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P46">
@@ -2995,12 +3307,18 @@
       <c r="Q46">
         <v>0</v>
       </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
       <c r="S46">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -3025,36 +3343,43 @@
       <c r="H47">
         <v>11</v>
       </c>
-      <c r="J47">
-        <f t="shared" si="1"/>
+      <c r="I47">
+        <v>12</v>
+      </c>
+      <c r="K47">
+        <f>H47-G47</f>
         <v>3</v>
       </c>
-      <c r="L47">
-        <f t="shared" si="2"/>
-        <v>8.0816244065057071E-5</v>
-      </c>
       <c r="M47">
-        <f t="shared" si="3"/>
-        <v>5.6980056980056983E-3</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>1.1112233558945348E-4</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="1"/>
+        <v>8.5470085470085479E-3</v>
+      </c>
+      <c r="P47">
+        <f>(E47-D47)/D47*100</f>
         <v>100</v>
       </c>
-      <c r="P47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q47">
-        <f t="shared" si="6"/>
+        <f>(F47-E47)/E47*100</f>
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <f>(G47-F47)/F47*100</f>
         <v>100</v>
       </c>
       <c r="S47">
-        <f t="shared" si="7"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>37.5</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -3079,36 +3404,43 @@
       <c r="H48" s="1">
         <v>2735</v>
       </c>
-      <c r="J48">
-        <f t="shared" si="1"/>
+      <c r="I48" s="1">
+        <v>3385</v>
+      </c>
+      <c r="K48">
+        <f>H48-G48</f>
         <v>475</v>
       </c>
-      <c r="L48">
-        <f t="shared" si="2"/>
-        <v>1.513375966786085E-3</v>
-      </c>
       <c r="M48">
-        <f t="shared" si="3"/>
-        <v>0.95238095238095233</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>1.8314527739645764E-3</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="1"/>
+        <v>1.426464391066161</v>
+      </c>
+      <c r="P48">
+        <f>(E48-D48)/D48*100</f>
         <v>120.24169184290029</v>
       </c>
-      <c r="P48">
-        <f t="shared" si="5"/>
+      <c r="Q48">
+        <f>(F48-E48)/E48*100</f>
         <v>28.943758573388202</v>
       </c>
-      <c r="Q48">
-        <f t="shared" si="6"/>
+      <c r="R48">
+        <f>(G48-F48)/F48*100</f>
         <v>20.212765957446805</v>
       </c>
       <c r="S48">
-        <f t="shared" si="7"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>21.017699115044248</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -3133,36 +3465,43 @@
       <c r="H49">
         <v>53</v>
       </c>
-      <c r="J49">
-        <f t="shared" si="1"/>
+      <c r="I49">
+        <v>64</v>
+      </c>
+      <c r="K49">
+        <f>H49-G49</f>
         <v>14</v>
       </c>
-      <c r="L49">
-        <f t="shared" si="2"/>
-        <v>5.0292080931564089E-4</v>
-      </c>
       <c r="M49">
-        <f t="shared" si="3"/>
-        <v>3.9117352056168508E-2</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>6.8345648445458879E-4</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="1"/>
+        <v>6.4192577733199599E-2</v>
+      </c>
+      <c r="P49">
+        <f>(E49-D49)/D49*100</f>
         <v>91.666666666666657</v>
       </c>
-      <c r="P49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q49">
-        <f t="shared" si="6"/>
+        <f>(F49-E49)/E49*100</f>
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <f>(G49-F49)/F49*100</f>
         <v>69.565217391304344</v>
       </c>
       <c r="S49">
-        <f t="shared" si="7"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>35.897435897435898</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -3187,36 +3526,43 @@
       <c r="H50">
         <v>2</v>
       </c>
-      <c r="J50">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="2"/>
-        <v>1.9559902200488996E-5</v>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <f>H50-G50</f>
+        <v>1</v>
       </c>
       <c r="M50">
-        <f t="shared" si="3"/>
-        <v>1.9120458891013384E-3</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.9119804400977993E-5</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="1"/>
+        <v>3.8240917782026767E-3</v>
       </c>
       <c r="P50">
-        <f t="shared" si="5"/>
+        <f>(E50-D50)/D50*100</f>
         <v>0</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="6"/>
+        <f>(F50-E50)/E50*100</f>
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <f>(G50-F50)/F50*100</f>
         <v>0</v>
       </c>
       <c r="S50">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -3241,36 +3587,43 @@
       <c r="H51">
         <v>22</v>
       </c>
-      <c r="J51">
-        <f t="shared" si="1"/>
+      <c r="I51">
+        <v>26</v>
+      </c>
+      <c r="K51">
+        <f>H51-G51</f>
         <v>6</v>
       </c>
-      <c r="L51">
-        <f t="shared" si="2"/>
-        <v>1.5753613485093142E-4</v>
-      </c>
       <c r="M51">
-        <f t="shared" si="3"/>
-        <v>3.3613445378151259E-2</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>2.1661218542003071E-4</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="1"/>
+        <v>5.4621848739495799E-2</v>
+      </c>
+      <c r="P51">
+        <f>(E51-D51)/D51*100</f>
         <v>36.363636363636367</v>
       </c>
-      <c r="P51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q51">
-        <f t="shared" si="6"/>
+        <f>(F51-E51)/E51*100</f>
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <f>(G51-F51)/F51*100</f>
         <v>6.666666666666667</v>
       </c>
       <c r="S51">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>37.5</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -3295,36 +3648,43 @@
       <c r="H52">
         <v>78</v>
       </c>
-      <c r="J52">
-        <f t="shared" si="1"/>
+      <c r="I52">
+        <v>98</v>
+      </c>
+      <c r="K52">
+        <f>H52-G52</f>
         <v>13</v>
       </c>
-      <c r="L52">
-        <f t="shared" si="2"/>
-        <v>3.5617804518529476E-4</v>
-      </c>
       <c r="M52">
-        <f t="shared" si="3"/>
-        <v>5.5986218776916452E-2</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>4.2741365422235372E-4</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="1"/>
+        <v>8.4409991386735578E-2</v>
+      </c>
+      <c r="P52">
+        <f>(E52-D52)/D52*100</f>
         <v>94.444444444444443</v>
       </c>
-      <c r="P52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q52">
-        <f t="shared" si="6"/>
+        <f>(F52-E52)/E52*100</f>
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <f>(G52-F52)/F52*100</f>
         <v>85.714285714285708</v>
       </c>
       <c r="S52">
-        <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -3349,36 +3709,44 @@
       <c r="H53">
         <v>2</v>
       </c>
-      <c r="J53">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="2"/>
+      <c r="I53">
+        <v>8</v>
+      </c>
+      <c r="J53" s="1"/>
+      <c r="K53">
+        <f>H53-G53</f>
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="0"/>
         <v>3.0438157273958636E-5</v>
       </c>
-      <c r="M53">
-        <f t="shared" si="3"/>
-        <v>2.2988505747126436E-3</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="4"/>
+      <c r="N53">
+        <f t="shared" si="1"/>
+        <v>9.1954022988505746E-3</v>
+      </c>
+      <c r="P53">
+        <f>(E53-D53)/D53*100</f>
         <v>100</v>
       </c>
-      <c r="P53">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q53">
-        <f t="shared" si="6"/>
+        <f>(F53-E53)/E53*100</f>
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <f>(G53-F53)/F53*100</f>
         <v>0</v>
       </c>
       <c r="S53">
-        <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>32</v>
       </c>
@@ -3403,36 +3771,43 @@
       <c r="H54">
         <v>4</v>
       </c>
-      <c r="J54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="2"/>
+      <c r="I54">
+        <v>6</v>
+      </c>
+      <c r="K54">
+        <f>H54-G54</f>
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="0"/>
         <v>6.3275120222728426E-5</v>
       </c>
-      <c r="M54">
-        <f t="shared" si="3"/>
-        <v>4.7281323877068557E-3</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="4"/>
+      <c r="N54">
+        <f t="shared" si="1"/>
+        <v>7.0921985815602835E-3</v>
+      </c>
+      <c r="P54">
+        <f>(E54-D54)/D54*100</f>
         <v>200</v>
       </c>
-      <c r="P54">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q54">
-        <f t="shared" si="6"/>
+        <f>(F54-E54)/E54*100</f>
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <f>(G54-F54)/F54*100</f>
         <v>33.333333333333329</v>
       </c>
       <c r="S54">
-        <f t="shared" si="7"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -3457,36 +3832,43 @@
       <c r="H55">
         <v>8</v>
       </c>
-      <c r="J55">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="2"/>
-        <v>7.4649148999701408E-5</v>
+      <c r="I55">
+        <v>11</v>
+      </c>
+      <c r="K55">
+        <f>H55-G55</f>
+        <v>1</v>
       </c>
       <c r="M55">
-        <f t="shared" si="3"/>
-        <v>5.0578034682080926E-3</v>
-      </c>
-      <c r="O55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>8.5313313142515893E-5</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="1"/>
+        <v>7.9479768786127163E-3</v>
+      </c>
+      <c r="P55">
+        <f>(E55-D55)/D55*100</f>
         <v>100</v>
       </c>
-      <c r="P55">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q55">
-        <f t="shared" si="6"/>
+        <f>(F55-E55)/E55*100</f>
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <f>(G55-F55)/F55*100</f>
         <v>16.666666666666664</v>
       </c>
       <c r="S55">
-        <f t="shared" si="7"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -3511,36 +3893,43 @@
       <c r="H56" s="1">
         <v>5944</v>
       </c>
-      <c r="J56">
-        <f t="shared" si="1"/>
+      <c r="I56" s="1">
+        <v>7187</v>
+      </c>
+      <c r="K56">
+        <f>H56-G56</f>
         <v>1253</v>
       </c>
-      <c r="L56">
-        <f t="shared" si="2"/>
-        <v>4.9425094799038678E-3</v>
-      </c>
       <c r="M56">
-        <f t="shared" si="3"/>
-        <v>9.3819999999999997</v>
-      </c>
-      <c r="O56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>6.2626894795456385E-3</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="1"/>
+        <v>14.374000000000001</v>
+      </c>
+      <c r="P56">
+        <f>(E56-D56)/D56*100</f>
         <v>108.65176640230713</v>
       </c>
-      <c r="P56">
-        <f t="shared" si="5"/>
+      <c r="Q56">
+        <f>(F56-E56)/E56*100</f>
         <v>34.450587422252937</v>
       </c>
-      <c r="Q56">
-        <f t="shared" si="6"/>
+      <c r="R56">
+        <f>(G56-F56)/F56*100</f>
         <v>20.560267283474683</v>
       </c>
       <c r="S56">
-        <f t="shared" si="7"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>26.710722660413559</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -3565,36 +3954,43 @@
       <c r="H57">
         <v>7</v>
       </c>
-      <c r="J57">
-        <f t="shared" si="1"/>
+      <c r="I57">
+        <v>7</v>
+      </c>
+      <c r="K57">
+        <f>H57-G57</f>
         <v>3</v>
       </c>
-      <c r="L57">
-        <f t="shared" si="2"/>
-        <v>9.4887913651998582E-5</v>
-      </c>
       <c r="M57">
-        <f t="shared" si="3"/>
-        <v>6.7114093959731542E-3</v>
-      </c>
-      <c r="O57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>1.660538488909975E-4</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="1"/>
+        <v>1.1744966442953021E-2</v>
+      </c>
+      <c r="P57">
+        <f>(E57-D57)/D57*100</f>
         <v>100</v>
       </c>
-      <c r="P57">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q57">
-        <f t="shared" si="6"/>
+        <f>(F57-E57)/E57*100</f>
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <f>(G57-F57)/F57*100</f>
         <v>0</v>
       </c>
       <c r="S57">
-        <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -3619,19 +4015,19 @@
       <c r="H58">
         <v>0</v>
       </c>
-      <c r="J58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="2"/>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <f>H58-G58</f>
         <v>0</v>
       </c>
       <c r="M58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P58">
@@ -3640,12 +4036,18 @@
       <c r="Q58">
         <v>0</v>
       </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
       <c r="S58">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -3670,37 +4072,44 @@
       <c r="H59">
         <v>21393</v>
       </c>
-      <c r="J59">
-        <f t="shared" si="1"/>
+      <c r="I59">
+        <v>25398</v>
+      </c>
+      <c r="K59">
+        <f>H59-G59</f>
         <v>3537</v>
       </c>
-      <c r="L59">
-        <f t="shared" si="2"/>
-        <v>2.1841846487390482E-3</v>
-      </c>
       <c r="M59">
-        <f t="shared" si="3"/>
-        <v>38.08223852584883</v>
-      </c>
-      <c r="O59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>2.6168381603088294E-3</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="1"/>
+        <v>54.167377580617639</v>
+      </c>
+      <c r="P59">
+        <f>(E59-D59)/D59*100</f>
         <v>98.116245371115767</v>
       </c>
-      <c r="P59">
-        <f t="shared" si="5"/>
+      <c r="Q59">
+        <f>(F59-E59)/E59*100</f>
         <v>21.121495327102803</v>
       </c>
-      <c r="Q59">
-        <f t="shared" si="6"/>
+      <c r="R59">
+        <f>(G59-F59)/F59*100</f>
         <v>19.806763285024154</v>
       </c>
       <c r="S59">
-        <f t="shared" si="7"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="I61" s="1"/>
+        <f t="shared" si="2"/>
+        <v>19.808467741935484</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
     </row>
     <row r="70" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E70" s="1"/>
